--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1227.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1227.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.469496905613431</v>
+        <v>1.200496077537537</v>
       </c>
       <c r="B1">
-        <v>2.807156079562463</v>
+        <v>2.061381101608276</v>
       </c>
       <c r="C1">
-        <v>2.355610193104015</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.899535449827292</v>
+        <v>2.080751657485962</v>
       </c>
       <c r="E1">
-        <v>1.284671908177826</v>
+        <v>1.206899642944336</v>
       </c>
     </row>
   </sheetData>
